--- a/entrada.xlsx
+++ b/entrada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" state="visible" r:id="rId2"/>
@@ -284,7 +284,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -320,7 +320,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>0</v>
@@ -330,25 +330,25 @@
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="7" t="n">
         <v>0</v>
@@ -356,7 +356,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>0</v>
@@ -364,15 +364,15 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="B8" s="7" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>0</v>
@@ -396,7 +396,7 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -743,7 +743,7 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/entrada.xlsx
+++ b/entrada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\TermoSol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D862D043-C984-4891-BBD1-680F6A5A2F89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E7847E-F1DE-40EC-90B2-270D764358EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11325" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/entrada.xlsx
+++ b/entrada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\TermoSol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Google Drive\INSPER\5C\Transferência de Calor e Mecânica dos Sólidos\TermoSol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E7847E-F1DE-40EC-90B2-270D764358EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30AA42A-1164-498E-B872-F7CAA074BCA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11325" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" tabRatio="500" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -553,19 +553,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="4" width="11.54296875" customWidth="1"/>
+    <col min="5" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,9 +577,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -587,12 +587,12 @@
       <c r="C2" s="4"/>
       <c r="D2" s="5">
         <f>COUNT(A2:A1048576)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -600,54 +600,118 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="B4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="B6" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="B7" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
-        <v>3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
+        <v>0</v>
+      </c>
+      <c r="B9" s="7">
+        <f>0.4*SQRT(3)</f>
+        <v>0.69282032302755092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="B10" s="7">
+        <f>0.4*SQRT(3)</f>
+        <v>0.69282032302755092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="B11" s="7">
+        <f t="shared" ref="B11:B15" si="0">0.4*SQRT(3)</f>
+        <v>0.69282032302755092</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="B12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.69282032302755092</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.69282032302755092</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
         <v>4</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.69282032302755092</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
         <v>0</v>
+      </c>
+      <c r="B15" s="7">
+        <f>-0.4*SQRT(3)</f>
+        <v>-0.69282032302755092</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <f>-0.4*SQRT(3)</f>
+        <v>-0.69282032302755092</v>
       </c>
     </row>
   </sheetData>
@@ -658,19 +722,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="7" width="11.54296875" customWidth="1"/>
+    <col min="8" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -688,7 +752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -699,18 +763,18 @@
         <v>4000000000</v>
       </c>
       <c r="D2" s="9">
-        <f t="shared" ref="D2:D14" si="0">0.1*0.2</f>
-        <v>2.0000000000000004E-2</v>
+        <f>0.8*0.2</f>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="10">
         <f>COUNT(A2:A1048576)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7">
         <v>3</v>
@@ -719,151 +783,151 @@
         <v>4000000001</v>
       </c>
       <c r="D3" s="9">
-        <f t="shared" si="0"/>
-        <v>2.0000000000000004E-2</v>
+        <f t="shared" ref="D3:D26" si="0">0.8*0.2</f>
+        <v>0.16000000000000003</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="9">
         <v>4000000002</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" si="0"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="9">
         <v>4000000003</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="9">
         <v>4000000003</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" s="9">
         <v>4000000004</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" s="9">
         <v>4000000005</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B9" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C9" s="9">
         <v>4000000006</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B10" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10" s="9">
         <v>4000000006</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B11" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C11" s="9">
         <v>4000000007</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C12" s="9">
         <v>4000000008</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B13" s="7">
         <v>8</v>
@@ -873,12 +937,12 @@
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B14" s="7">
         <v>8</v>
@@ -888,8 +952,191 @@
       </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="7">
+        <v>9</v>
+      </c>
+      <c r="C15" s="9">
+        <v>4000000010</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>3</v>
+      </c>
+      <c r="B16" s="7">
+        <v>9</v>
+      </c>
+      <c r="C16" s="9">
+        <v>4000000010</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>10</v>
+      </c>
+      <c r="C17" s="9">
+        <v>4000000010</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>4</v>
+      </c>
+      <c r="B18" s="7">
+        <v>10</v>
+      </c>
+      <c r="C18" s="9">
+        <v>4000000010</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>4</v>
+      </c>
+      <c r="B19" s="7">
+        <v>11</v>
+      </c>
+      <c r="C19" s="9">
+        <v>4000000010</v>
+      </c>
+      <c r="D19" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>5</v>
+      </c>
+      <c r="B20" s="7">
+        <v>11</v>
+      </c>
+      <c r="C20" s="9">
+        <v>4000000010</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>5</v>
+      </c>
+      <c r="B21" s="7">
+        <v>12</v>
+      </c>
+      <c r="C21" s="9">
+        <v>4000000010</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>6</v>
+      </c>
+      <c r="B22" s="7">
+        <v>12</v>
+      </c>
+      <c r="C22" s="9">
+        <v>4000000010</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>6</v>
+      </c>
+      <c r="B23" s="7">
+        <v>13</v>
+      </c>
+      <c r="C23" s="9">
+        <v>4000000010</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>7</v>
+      </c>
+      <c r="B24" s="7">
+        <v>13</v>
+      </c>
+      <c r="C24" s="9">
+        <v>4000000010</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>2</v>
+      </c>
+      <c r="B25" s="7">
+        <v>14</v>
+      </c>
+      <c r="C25" s="9">
+        <v>4000000010</v>
+      </c>
+      <c r="D25" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>6</v>
+      </c>
+      <c r="B26" s="7">
+        <v>15</v>
+      </c>
+      <c r="C26" s="9">
+        <v>4000000010</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -901,17 +1148,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="5" width="11.54296875" customWidth="1"/>
+    <col min="6" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,48 +1173,41 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <f>-8*1000</f>
-        <v>-8000</v>
+        <f>-75</f>
+        <v>-75</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5">
         <f>COUNT(A2:A1048576)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="4">
-        <f>-12*1000</f>
-        <v>-12000</v>
+        <f>-75</f>
+        <v>-75</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4">
-        <f>-8*1000</f>
-        <v>-8000</v>
-      </c>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
@@ -981,17 +1221,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="4" width="11.54296875" customWidth="1"/>
+    <col min="5" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1003,22 +1243,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5">
         <f>COUNT(A2:A1048576)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
@@ -1026,43 +1266,35 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2</v>
-      </c>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>

--- a/entrada.xlsx
+++ b/entrada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Google Drive\INSPER\5C\Transferência de Calor e Mecânica dos Sólidos\TermoSol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30AA42A-1164-498E-B872-F7CAA074BCA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BFF5A2-CA2B-4B55-93DC-B7EFF4D0A667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" tabRatio="500" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8200" yWindow="1110" windowWidth="14400" windowHeight="7370" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -171,6 +171,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,7 +557,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C7" sqref="C7:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -579,7 +580,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>-0.4</v>
+        <v>-0.01</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -587,12 +588,12 @@
       <c r="C2" s="4"/>
       <c r="D2" s="5">
         <f>COUNT(A2:A1048576)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -602,7 +603,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>1.2</v>
+        <v>0.17</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -612,7 +613,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
-        <v>2</v>
+        <v>0.23</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -620,7 +621,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
-        <v>2.8</v>
+        <v>0.3</v>
       </c>
       <c r="B6" s="7">
         <v>0</v>
@@ -628,7 +629,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
-        <v>3.6</v>
+        <v>0.41</v>
       </c>
       <c r="B7" s="7">
         <v>0</v>
@@ -636,83 +637,57 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
-        <v>4.4000000000000004</v>
+        <v>0.08</v>
       </c>
       <c r="B8" s="7">
-        <v>0</v>
+        <v>6.3092999999999996E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="B9" s="7">
-        <f>0.4*SQRT(3)</f>
-        <v>0.69282032302755092</v>
-      </c>
+        <v>0.109542</v>
+      </c>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
-        <v>0.8</v>
+        <v>0.24</v>
       </c>
       <c r="B10" s="7">
-        <f>0.4*SQRT(3)</f>
-        <v>0.69282032302755092</v>
-      </c>
+        <v>0.109542</v>
+      </c>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
-        <v>1.6</v>
+        <v>0.315</v>
       </c>
       <c r="B11" s="7">
-        <f t="shared" ref="B11:B15" si="0">0.4*SQRT(3)</f>
-        <v>0.69282032302755092</v>
+        <v>6.3092999999999996E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
-        <v>2.4</v>
-      </c>
-      <c r="B12" s="7">
-        <f t="shared" si="0"/>
-        <v>0.69282032302755092</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="B13" s="7">
-        <f t="shared" si="0"/>
-        <v>0.69282032302755092</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
-        <v>4</v>
-      </c>
-      <c r="B14" s="7">
-        <f t="shared" si="0"/>
-        <v>0.69282032302755092</v>
-      </c>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
-        <v>0</v>
-      </c>
-      <c r="B15" s="7">
-        <f>-0.4*SQRT(3)</f>
-        <v>-0.69282032302755092</v>
-      </c>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <f>-0.4*SQRT(3)</f>
-        <v>-0.69282032302755092</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -725,7 +700,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -763,13 +738,13 @@
         <v>4000000000</v>
       </c>
       <c r="D2" s="9">
-        <f>0.8*0.2</f>
-        <v>0.16000000000000003</v>
+        <f>(0.3/14)/848</f>
+        <v>2.5269541778975742E-5</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="10">
         <f>COUNT(A2:A1048576)</f>
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -783,8 +758,8 @@
         <v>4000000001</v>
       </c>
       <c r="D3" s="9">
-        <f t="shared" ref="D3:D26" si="0">0.8*0.2</f>
-        <v>0.16000000000000003</v>
+        <f t="shared" ref="D3:D15" si="0">(0.3/14)/848</f>
+        <v>2.5269541778975742E-5</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -802,7 +777,7 @@
       </c>
       <c r="D4" s="9">
         <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
+        <v>2.5269541778975742E-5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -817,7 +792,7 @@
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
+        <v>2.5269541778975742E-5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -832,308 +807,198 @@
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
+        <v>2.5269541778975742E-5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7">
         <v>7</v>
       </c>
       <c r="C7" s="9">
-        <v>4000000004</v>
+        <v>4000000003</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
+        <v>2.5269541778975742E-5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
         <v>8</v>
       </c>
-      <c r="B8" s="7">
-        <v>9</v>
-      </c>
       <c r="C8" s="9">
-        <v>4000000005</v>
+        <v>4000000003</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
+        <v>2.5269541778975742E-5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
         <v>9</v>
       </c>
-      <c r="B9" s="7">
-        <v>10</v>
-      </c>
       <c r="C9" s="9">
-        <v>4000000006</v>
+        <v>4000000003</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
+        <v>2.5269541778975742E-5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
         <v>10</v>
       </c>
-      <c r="B10" s="7">
-        <v>11</v>
-      </c>
       <c r="C10" s="9">
-        <v>4000000006</v>
+        <v>4000000003</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
+        <v>2.5269541778975742E-5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B11" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="9">
-        <v>4000000007</v>
+        <v>4000000003</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
-      </c>
+        <v>2.5269541778975742E-5</v>
+      </c>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B12" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C12" s="9">
-        <v>4000000008</v>
+        <v>4000000003</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
+        <v>2.5269541778975742E-5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" s="7">
         <v>8</v>
       </c>
       <c r="C13" s="9">
-        <v>4000000009</v>
+        <v>4000000003</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
+        <v>2.5269541778975742E-5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="9">
-        <v>4000000010</v>
+        <v>4000000003</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
+        <v>2.5269541778975742E-5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="9">
-        <v>4000000010</v>
+        <v>4000000003</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
+        <v>2.5269541778975742E-5</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
-        <v>3</v>
-      </c>
-      <c r="B16" s="7">
-        <v>9</v>
-      </c>
-      <c r="C16" s="9">
-        <v>4000000010</v>
-      </c>
-      <c r="D16" s="9">
-        <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>10</v>
-      </c>
-      <c r="C17" s="9">
-        <v>4000000010</v>
-      </c>
-      <c r="D17" s="9">
-        <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
-      </c>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
-        <v>4</v>
-      </c>
-      <c r="B18" s="7">
-        <v>10</v>
-      </c>
-      <c r="C18" s="9">
-        <v>4000000010</v>
-      </c>
-      <c r="D18" s="9">
-        <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
-        <v>4</v>
-      </c>
-      <c r="B19" s="7">
-        <v>11</v>
-      </c>
-      <c r="C19" s="9">
-        <v>4000000010</v>
-      </c>
-      <c r="D19" s="9">
-        <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
-      </c>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
-        <v>5</v>
-      </c>
-      <c r="B20" s="7">
-        <v>11</v>
-      </c>
-      <c r="C20" s="9">
-        <v>4000000010</v>
-      </c>
-      <c r="D20" s="9">
-        <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
-      </c>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
-        <v>5</v>
-      </c>
-      <c r="B21" s="7">
-        <v>12</v>
-      </c>
-      <c r="C21" s="9">
-        <v>4000000010</v>
-      </c>
-      <c r="D21" s="9">
-        <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
-      </c>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
-        <v>6</v>
-      </c>
-      <c r="B22" s="7">
-        <v>12</v>
-      </c>
-      <c r="C22" s="9">
-        <v>4000000010</v>
-      </c>
-      <c r="D22" s="9">
-        <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="7">
-        <v>6</v>
-      </c>
-      <c r="B23" s="7">
-        <v>13</v>
-      </c>
-      <c r="C23" s="9">
-        <v>4000000010</v>
-      </c>
-      <c r="D23" s="9">
-        <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
-        <v>7</v>
-      </c>
-      <c r="B24" s="7">
-        <v>13</v>
-      </c>
-      <c r="C24" s="9">
-        <v>4000000010</v>
-      </c>
-      <c r="D24" s="9">
-        <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
-      </c>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="7">
-        <v>2</v>
-      </c>
-      <c r="B25" s="7">
-        <v>14</v>
-      </c>
-      <c r="C25" s="9">
-        <v>4000000010</v>
-      </c>
-      <c r="D25" s="9">
-        <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
-      </c>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
-        <v>6</v>
-      </c>
-      <c r="B26" s="7">
-        <v>15</v>
-      </c>
-      <c r="C26" s="9">
-        <v>4000000010</v>
-      </c>
-      <c r="D26" s="9">
-        <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
-      </c>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
@@ -1148,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1175,14 +1040,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4">
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <f>-75</f>
-        <v>-75</v>
+        <v>-225</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5">
@@ -1192,14 +1056,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="4">
-        <f>-75</f>
-        <v>-75</v>
+        <v>-225</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1221,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1253,12 +1116,12 @@
       <c r="C2" s="4"/>
       <c r="D2" s="5">
         <f>COUNT(A2:A1048576)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
@@ -1267,22 +1130,14 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>14</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
